--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1028,10 +1040,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1075,28 +1087,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1121,28 +1133,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2129,10 +2141,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2176,28 +2188,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2222,28 +2234,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3056,10 +3068,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3103,28 +3115,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3149,28 +3161,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3635,10 +3647,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
